--- a/gamma_cross_sections/io/outputs/data/linear_atten.xlsx
+++ b/gamma_cross_sections/io/outputs/data/linear_atten.xlsx
@@ -467,8 +467,12 @@
       <c r="B2" t="n">
         <v>31</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>2.238867881535716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03675324539971693</v>
+      </c>
       <c r="E2" t="n">
         <v>2.242027613541729</v>
       </c>
@@ -503,8 +507,12 @@
       <c r="B4" t="n">
         <v>81</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.4485879127129438</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01518174086536896</v>
+      </c>
       <c r="E4" t="n">
         <v>0.5409524355997328</v>
       </c>
@@ -519,8 +527,12 @@
       <c r="B5" t="n">
         <v>356</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.2118048282336533</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01902699034649488</v>
+      </c>
       <c r="E5" t="n">
         <v>0.2668267692216283</v>
       </c>
@@ -535,8 +547,12 @@
       <c r="B6" t="n">
         <v>511</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>0.1950786199870751</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01261073097415048</v>
+      </c>
       <c r="E6" t="n">
         <v>0.2258516979754931</v>
       </c>
@@ -571,8 +587,12 @@
       <c r="B8" t="n">
         <v>1275</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>0.1409375134690638</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03197758134586337</v>
+      </c>
       <c r="E8" t="n">
         <v>0.1465892994864209</v>
       </c>

--- a/gamma_cross_sections/io/outputs/data/linear_atten.xlsx
+++ b/gamma_cross_sections/io/outputs/data/linear_atten.xlsx
@@ -468,16 +468,16 @@
         <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>2.238867881535716</v>
+        <v>2.120147338132171</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03675324539971693</v>
+        <v>0.032664625996545</v>
       </c>
       <c r="E2" t="n">
-        <v>2.242027613541729</v>
+        <v>2.786581942191909</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6726082840625186</v>
+        <v>0.08492224995459739</v>
       </c>
     </row>
     <row r="3">
@@ -494,10 +494,10 @@
         <v>0.04433824595599164</v>
       </c>
       <c r="E3" t="n">
-        <v>2.525581687645051</v>
+        <v>2.575046244071891</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7576745062935152</v>
+        <v>0.07758764563809811</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>81</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4485879127129438</v>
+        <v>0.4267577744766148</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01518174086536896</v>
+        <v>0.0103734718657173</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5409524355997328</v>
+        <v>0.5420737743758589</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1622857306799198</v>
+        <v>0.01492484181948727</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2118048282336533</v>
+        <v>0.2348088910634413</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01902699034649488</v>
+        <v>0.01015904091871061</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2668267692216283</v>
+        <v>0.2607220301076594</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08004803076648849</v>
+        <v>0.01311748503567509</v>
       </c>
     </row>
     <row r="6">
@@ -554,10 +554,10 @@
         <v>0.01261073097415048</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2258516979754931</v>
+        <v>0.2202390871830772</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06775550939264793</v>
+        <v>0.01215053414235768</v>
       </c>
     </row>
     <row r="7">
@@ -574,10 +574,10 @@
         <v>0.01668943470860861</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2005633062038932</v>
+        <v>0.2037080907976631</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06016899186116796</v>
+        <v>0.01124374412555548</v>
       </c>
     </row>
     <row r="8">
@@ -594,10 +594,10 @@
         <v>0.03197758134586337</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1465892994864209</v>
+        <v>0.1535832490935778</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04397678984592626</v>
+        <v>0.007908761114158546</v>
       </c>
     </row>
   </sheetData>
